--- a/project.xlsx
+++ b/project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="88">
   <si>
     <t>ECommerce site</t>
   </si>
@@ -215,9 +215,6 @@
     </r>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>Required information ,Male = 0 ,Female = 1</t>
   </si>
   <si>
@@ -642,9 +639,6 @@
     </r>
   </si>
   <si>
-    <t>nt</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -724,6 +718,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CountryName</t>
     </r>
     <r>
@@ -740,6 +741,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Countrycode</t>
     </r>
     <r>
@@ -759,6 +767,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Countryid</t>
     </r>
     <r>
@@ -775,6 +790,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Name</t>
     </r>
     <r>
@@ -797,8 +819,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -843,7 +865,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,13 +897,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,15 +911,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -890,21 +928,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,11 +949,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,6 +965,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -950,7 +979,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,7 +994,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,14 +1002,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,7 +1071,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,19 +1149,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,127 +1233,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,17 +1268,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,6 +1304,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1303,8 +1345,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,32 +1365,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1366,130 +1388,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1857,8 +1879,8 @@
   <sheetPr/>
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2009,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -2018,12 +2040,12 @@
         <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>12</v>
@@ -2032,15 +2054,15 @@
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
@@ -2049,75 +2071,75 @@
         <v>100</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2150,7 +2172,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>8</v>
@@ -2160,12 +2182,12 @@
         <v>9</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>12</v>
@@ -2182,7 +2204,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>12</v>
@@ -2194,42 +2216,42 @@
         <v>9</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="18.75" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2262,7 +2284,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>8</v>
@@ -2272,27 +2294,27 @@
         <v>9</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>12</v>
@@ -2309,7 +2331,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>12</v>
@@ -2321,42 +2343,42 @@
         <v>9</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2389,7 +2411,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>8</v>
@@ -2399,42 +2421,42 @@
         <v>9</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>12</v>
@@ -2451,7 +2473,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
@@ -2460,15 +2482,15 @@
         <v>200</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>12</v>
@@ -2477,15 +2499,15 @@
         <v>250</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>12</v>
@@ -2497,12 +2519,12 @@
         <v>9</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>8</v>
@@ -2511,15 +2533,15 @@
         <v>100</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>8</v>
@@ -2529,42 +2551,42 @@
         <v>9</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2597,7 +2619,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>8</v>
@@ -2607,119 +2629,119 @@
         <v>9</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C65" s="13">
         <v>50</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="18.75" spans="1:5">
       <c r="A71" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2752,7 +2774,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>8</v>
@@ -2762,12 +2784,12 @@
         <v>9</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>12</v>
@@ -2779,12 +2801,12 @@
         <v>9</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>12</v>
@@ -2796,12 +2818,12 @@
         <v>9</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>12</v>
@@ -2813,42 +2835,42 @@
         <v>9</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -2881,7 +2903,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>8</v>
@@ -2891,27 +2913,27 @@
         <v>9</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>12</v>
@@ -2923,12 +2945,12 @@
         <v>9</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>12</v>
@@ -2940,12 +2962,12 @@
         <v>9</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>12</v>
@@ -2957,12 +2979,12 @@
         <v>9</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>12</v>
@@ -2971,45 +2993,45 @@
         <v>250</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="18.75" spans="1:5">
       <c r="A94" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3042,7 +3064,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>8</v>
@@ -3052,27 +3074,27 @@
         <v>9</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>12</v>
@@ -3084,12 +3106,12 @@
         <v>9</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>12</v>
@@ -3101,12 +3123,12 @@
         <v>9</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>12</v>
@@ -3118,12 +3140,12 @@
         <v>9</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>12</v>
@@ -3132,45 +3154,45 @@
         <v>250</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" ht="18.75" spans="1:5">
       <c r="A107" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -3203,7 +3225,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>8</v>
@@ -3213,12 +3235,12 @@
         <v>9</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>12</v>
@@ -3235,7 +3257,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>12</v>
@@ -3247,42 +3269,42 @@
         <v>9</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:5">
       <c r="A117" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3315,7 +3337,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>8</v>
@@ -3325,12 +3347,12 @@
         <v>9</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>12</v>
@@ -3347,7 +3369,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>12</v>
@@ -3359,37 +3381,37 @@
         <v>9</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="93">
   <si>
     <t>ECommerce site</t>
   </si>
@@ -271,21 +271,212 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Optional information,intrest of user</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>Foreign key Relation With Shipping Information table</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Foreign key Relation With Billing Information table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Created Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Date and time when system has created a record.</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Required information , Default set to true</t>
+  </si>
+  <si>
+    <t>Table :- Category</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CategoryName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Required Information</t>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Table :- Sub Category</t>
+  </si>
+  <si>
+    <t>Category Id</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With Category table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SubCategoryName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Table :- Product</t>
+  </si>
+  <si>
+    <t>SubCategory Id</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With SubCategory table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProductName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Optional information</t>
   </si>
   <si>
-    <t>Shipping Address</t>
-  </si>
-  <si>
-    <t>Foreign key Relation With Shipping Information table</t>
-  </si>
-  <si>
-    <t>Billing Address</t>
-  </si>
-  <si>
-    <t>Foreign key Relation With Billing Information table</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -294,10 +485,138 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Created Date</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Required information,Small = 0 ,Medium =1,Large=2</t>
+  </si>
+  <si>
+    <t>Table :- Order</t>
+  </si>
+  <si>
+    <t>Product id</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With Product table</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With User table</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>Status Of Order</t>
+  </si>
+  <si>
+    <t>Modified Date</t>
+  </si>
+  <si>
+    <t>Date and time when Status has been modified.</t>
+  </si>
+  <si>
+    <t>Table :-  ContactUs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -308,24 +627,6 @@
     </r>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>Date and time when system has created a record.</t>
-  </si>
-  <si>
-    <t>IsActive</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Required information , Default set to true</t>
-  </si>
-  <si>
-    <t>Table :- Category</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -334,12 +635,83 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Id</t>
+      <t>EmailID</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subject</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Table :-  Shipping Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="5"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
@@ -349,9 +721,6 @@
     </r>
   </si>
   <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -360,12 +729,96 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CategoryName</t>
+      <t>Street</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>City</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>State</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Key Relation with State table</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation with Country table</t>
+  </si>
+  <si>
+    <t>Table :-  Billing Information</t>
+  </si>
+  <si>
+    <t>Table :- Country</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CountryName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="5"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
@@ -383,7 +836,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Description</t>
+      <t>Countrycode</t>
     </r>
     <r>
       <rPr>
@@ -398,22 +851,7 @@
     </r>
   </si>
   <si>
-    <t>Required Information</t>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Table :- Sub Category</t>
-  </si>
-  <si>
-    <t>Category Id</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation With Category table</t>
+    <t>Table :- State</t>
   </si>
   <si>
     <r>
@@ -424,7 +862,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SubCategoryName</t>
+      <t>Countryid</t>
     </r>
     <r>
       <rPr>
@@ -439,354 +877,7 @@
     </r>
   </si>
   <si>
-    <t>Table :- Product</t>
-  </si>
-  <si>
-    <t>SubCategory Id</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation With SubCategory table</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ProductName</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Required information,Small = 0 ,Medium =1,Large=2</t>
-  </si>
-  <si>
-    <t>Table :- Order</t>
-  </si>
-  <si>
-    <t>Product id</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation With Product table</t>
-  </si>
-  <si>
-    <t>Userid</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation With User table</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Varchar</t>
-  </si>
-  <si>
-    <t>Status Of Order</t>
-  </si>
-  <si>
-    <t>Modified Date</t>
-  </si>
-  <si>
-    <t>Date and time when Status has been modified.</t>
-  </si>
-  <si>
-    <t>Table :-  ContactUs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EmailID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Subject</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comment</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Table :-  Shipping Information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UserId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Street</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>City</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>State</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Table :-  Billing Information</t>
-  </si>
-  <si>
-    <t>Table :- Country</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CountryName</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Countrycode</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Table :- State</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Countryid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>Foreignkey Relation With Country table</t>
   </si>
   <si>
     <r>
@@ -817,9 +908,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -871,13 +962,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,7 +972,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,6 +1002,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -918,11 +1017,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -949,23 +1061,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,21 +1079,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1023,16 +1114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="5"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1071,7 +1162,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,13 +1198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1216,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,13 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,67 +1306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,13 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,6 +1412,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1341,44 +1456,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1391,127 +1482,127 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1879,8 +1970,8 @@
   <sheetPr/>
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2116,7 +2207,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>34</v>
@@ -2473,7 +2564,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
@@ -2485,12 +2576,12 @@
         <v>45</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>12</v>
@@ -2507,7 +2598,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>12</v>
@@ -2524,7 +2615,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>8</v>
@@ -2541,7 +2632,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>8</v>
@@ -2551,7 +2642,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2586,7 +2677,7 @@
     </row>
     <row r="58" ht="18.75" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2634,7 +2725,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>8</v>
@@ -2644,12 +2735,12 @@
         <v>23</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>8</v>
@@ -2659,12 +2750,12 @@
         <v>23</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>8</v>
@@ -2679,10 +2770,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C65" s="13">
         <v>50</v>
@@ -2691,7 +2782,7 @@
         <v>26</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2711,7 +2802,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>33</v>
@@ -2721,7 +2812,7 @@
         <v>23</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2741,7 +2832,7 @@
     </row>
     <row r="71" ht="18.75" spans="1:5">
       <c r="A71" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2774,7 +2865,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>8</v>
@@ -2789,7 +2880,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>12</v>
@@ -2806,7 +2897,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>12</v>
@@ -2823,7 +2914,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>12</v>
@@ -2870,7 +2961,7 @@
     </row>
     <row r="82" ht="18.75" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -2903,7 +2994,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>8</v>
@@ -2918,7 +3009,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>8</v>
@@ -2928,12 +3019,12 @@
         <v>23</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>12</v>
@@ -2950,14 +3041,12 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="13">
-        <v>50</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C88" s="13"/>
       <c r="D88" s="6" t="s">
         <v>9</v>
       </c>
@@ -2967,24 +3056,22 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="13">
-        <v>250</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>12</v>
@@ -2996,7 +3083,7 @@
         <v>23</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3031,7 +3118,7 @@
     </row>
     <row r="94" ht="18.75" spans="1:5">
       <c r="A94" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3064,7 +3151,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>8</v>
@@ -3079,7 +3166,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>8</v>
@@ -3089,12 +3176,12 @@
         <v>23</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>12</v>
@@ -3111,7 +3198,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>12</v>
@@ -3128,36 +3215,32 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="13">
-        <v>250</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="13">
-        <v>250</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C102" s="13"/>
       <c r="D102" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3192,7 +3275,7 @@
     </row>
     <row r="107" ht="18.75" spans="1:5">
       <c r="A107" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -3240,7 +3323,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>12</v>
@@ -3257,7 +3340,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>12</v>
@@ -3304,7 +3387,7 @@
     </row>
     <row r="117" ht="18.75" spans="1:5">
       <c r="A117" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3352,24 +3435,22 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="13">
-        <v>50</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C121" s="13"/>
       <c r="D121" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>12</v>

--- a/project.xlsx
+++ b/project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="112">
   <si>
     <t>ECommerce site</t>
   </si>
@@ -215,6 +215,9 @@
     </r>
   </si>
   <si>
+    <t>Enum</t>
+  </si>
+  <si>
     <t>Required information ,Male = 0 ,Female = 1</t>
   </si>
   <si>
@@ -247,6 +250,21 @@
   </si>
   <si>
     <r>
+      <t>Mobile no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -274,18 +292,6 @@
     <t>Optional information,intrest of user</t>
   </si>
   <si>
-    <t>Shipping Address</t>
-  </si>
-  <si>
-    <t>Foreign key Relation With Shipping Information table</t>
-  </si>
-  <si>
-    <t>Billing Address</t>
-  </si>
-  <si>
-    <t>Foreign key Relation With Billing Information table</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -314,13 +320,31 @@
     <t>Date and time when system has created a record.</t>
   </si>
   <si>
-    <t>IsActive</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Required information , Default set to true</t>
+    <r>
+      <t>Modified Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Date and time when system has updated a record.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>Active = 1 ,Deactive = 0 , Deleted = -1</t>
   </si>
   <si>
     <t>Table :- Category</t>
@@ -398,6 +422,12 @@
     </r>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
     <t>Required Information</t>
   </si>
   <si>
@@ -500,6 +530,24 @@
   </si>
   <si>
     <r>
+      <t>Color id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Key Relation With Color table</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -507,7 +555,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Color</t>
+      <t>Price</t>
     </r>
     <r>
       <rPr>
@@ -529,7 +577,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Price</t>
+      <t>Size</t>
     </r>
     <r>
       <rPr>
@@ -543,6 +591,51 @@
     </r>
   </si>
   <si>
+    <t>Foreign Key Relation With Size table</t>
+  </si>
+  <si>
+    <t>SKU ID*</t>
+  </si>
+  <si>
+    <t>Table :- Order</t>
+  </si>
+  <si>
+    <t>Product id</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With Product table</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With User table</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Tax Amount</t>
+  </si>
+  <si>
+    <t>Delievery Status</t>
+  </si>
+  <si>
+    <t>delivered=4,out for delievery = 3,shipped=2,packed=1,ordered=0,</t>
+  </si>
+  <si>
+    <t>Modified Date</t>
+  </si>
+  <si>
+    <t>Date and time when Status has been modified.</t>
+  </si>
+  <si>
+    <t>Table :-  ContactUs</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -551,7 +644,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Size</t>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Name</t>
     </r>
     <r>
       <rPr>
@@ -565,60 +674,342 @@
     </r>
   </si>
   <si>
-    <t>Required information,Small = 0 ,Medium =1,Large=2</t>
-  </si>
-  <si>
-    <t>Table :- Order</t>
-  </si>
-  <si>
-    <t>Product id</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation With Product table</t>
-  </si>
-  <si>
-    <t>Userid</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation With User table</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EmailID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subject</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Table :-  Shipping Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Street</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>City</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Key Relation with City table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>State</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Key Relation with State table</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation with Country table</t>
+  </si>
+  <si>
+    <t>Table :-  Billing Information</t>
+  </si>
+  <si>
+    <t>Table :- Country</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CountryName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Countrycode</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Table :- State</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Countryid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreignkey Relation With Country table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Table :- City</t>
+  </si>
+  <si>
+    <r>
+      <t>Stateid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreignkey Relation With State table</t>
+  </si>
+  <si>
+    <t>Table :- Color</t>
+  </si>
+  <si>
+    <r>
+      <t>ColorCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>Varchar</t>
   </si>
   <si>
-    <t>Status Of Order</t>
-  </si>
-  <si>
-    <t>Modified Date</t>
-  </si>
-  <si>
-    <t>Date and time when Status has been modified.</t>
-  </si>
-  <si>
-    <t>Table :-  ContactUs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
+    <t>Table :- Size</t>
+  </si>
+  <si>
+    <t>Table :- Tax</t>
+  </si>
+  <si>
+    <r>
+      <t>Country Id</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="5"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -627,280 +1018,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EmailID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Subject</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comment</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Table :-  Shipping Information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UserId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Street</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>City</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>State</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Foreign Key Relation with State table</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation with Country table</t>
-  </si>
-  <si>
-    <t>Table :-  Billing Information</t>
-  </si>
-  <si>
-    <t>Table :- Country</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CountryName</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Countrycode</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Table :- State</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Countryid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Foreignkey Relation With Country table</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>Foreign Key Relation With Country table</t>
+  </si>
+  <si>
+    <t>State Id*</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With State table</t>
   </si>
 </sst>
 </file>
@@ -909,8 +1033,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -955,6 +1079,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -962,9 +1094,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,16 +1116,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,20 +1149,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1053,14 +1170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1069,9 +1178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,7 +1193,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,7 +1230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="5"/>
       <name val="Calibri"/>
@@ -1114,6 +1237,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="5"/>
       <name val="Calibri"/>
@@ -1162,7 +1286,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,7 +1322,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,25 +1364,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,7 +1406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,37 +1418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,55 +1448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,17 +1479,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,21 +1531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1456,12 +1554,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1479,134 +1603,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,6 +1753,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1968,10 +2095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2024,7 +2151,9 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7">
+        <v>11</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2122,7 +2251,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -2131,12 +2260,12 @@
         <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>12</v>
@@ -2145,39 +2274,41 @@
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>29</v>
@@ -2188,26 +2319,29 @@
         <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="8">
+        <f>-C25</f>
+        <v>-11</v>
+      </c>
       <c r="D18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>34</v>
@@ -2220,7 +2354,9 @@
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
@@ -2229,46 +2365,48 @@
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="14">
+        <v>11</v>
+      </c>
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
@@ -2277,13 +2415,13 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="14">
         <v>50</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -2294,350 +2432,362 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="13">
-        <v>200</v>
+        <v>43</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" ht="18.75" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="10"/>
+    <row r="33" ht="18.75" spans="1:5">
+      <c r="A33" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="14">
+        <v>11</v>
+      </c>
       <c r="D36" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="C37" s="14">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="12" t="s">
-        <v>42</v>
+      <c r="A38" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="13">
-        <v>200</v>
+      <c r="C38" s="14">
+        <v>50</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="7" t="s">
+      <c r="C39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" ht="18.75" spans="1:5">
-      <c r="A42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>6</v>
-      </c>
+    <row r="44" ht="18.75" spans="1:5">
+      <c r="A44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="12" t="s">
-        <v>51</v>
+      <c r="A47" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="14">
+        <v>11</v>
+      </c>
       <c r="D47" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="14">
+        <v>11</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="13">
-        <v>50</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="12" t="s">
+      <c r="B49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="14">
+        <v>11</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="13">
-        <v>200</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="14">
+        <v>50</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="14">
+        <v>200</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="14">
         <v>250</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="13">
-        <v>20</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="13">
-        <v>100</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="E52" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="14">
+        <v>11</v>
+      </c>
       <c r="D53" s="6" t="s">
         <v>9</v>
       </c>
@@ -2646,725 +2796,809 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="14">
+        <v>100</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="14">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="14">
+        <v>100</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="B58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="7" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="C59" s="7">
+        <v>2</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" ht="18.75" spans="1:5">
-      <c r="A58" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>63</v>
-      </c>
+    <row r="62" ht="18.75" spans="1:5">
+      <c r="A62" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="14">
+        <v>11</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="C66" s="14">
+        <v>11</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="14">
+        <v>11</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="14">
+        <v>11</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="14">
+        <v>11</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="14">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="14">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="7">
+        <v>2</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" ht="18.75" spans="1:5">
+      <c r="A77" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="14">
+        <v>11</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="14">
+        <v>100</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="14">
+        <v>100</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="14">
+        <v>255</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="13">
-        <v>50</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="C84" s="14">
+        <v>250</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="7">
+        <v>2</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" ht="18.75" spans="1:5">
+      <c r="A90" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="14">
+        <v>11</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="14">
+        <v>11</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="14">
+        <v>100</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" ht="18.75" spans="1:5">
-      <c r="A71" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="6" t="s">
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="13">
-        <v>100</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="13">
-        <v>50</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="13">
-        <v>250</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" ht="18.75" spans="1:5">
-      <c r="A82" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="13">
-        <v>100</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="13">
-        <v>250</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" ht="18.75" spans="1:5">
-      <c r="A94" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>6</v>
+      <c r="C96" s="14">
+        <v>11</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="12" t="s">
-        <v>73</v>
+      <c r="A97" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="14">
+        <v>11</v>
+      </c>
       <c r="D97" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="14">
+        <v>250</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="7">
+        <v>2</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" ht="18.75" spans="1:5">
+      <c r="A103" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="14">
+        <v>11</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="6" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="C107" s="14">
+        <v>11</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C108" s="14">
         <v>100</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="13">
-        <v>50</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="D108" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" ht="18.75" spans="1:5">
-      <c r="A107" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>6</v>
+      <c r="C109" s="14">
+        <v>11</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="12" t="s">
-        <v>39</v>
+      <c r="A110" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="14">
+        <v>11</v>
+      </c>
       <c r="D110" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="12" t="s">
-        <v>87</v>
+      <c r="A111" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="13">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="C111" s="14">
+        <v>11</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="13">
-        <v>50</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>43</v>
+      <c r="A112" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>34</v>
@@ -3377,7 +3611,9 @@
       <c r="B114" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C114" s="7"/>
+      <c r="C114" s="7">
+        <v>2</v>
+      </c>
       <c r="D114" s="7" t="s">
         <v>9</v>
       </c>
@@ -3386,46 +3622,48 @@
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:5">
-      <c r="A117" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
+      <c r="A117" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="6"/>
+      <c r="C120" s="14">
+        <v>11</v>
+      </c>
       <c r="D120" s="6" t="s">
         <v>9</v>
       </c>
@@ -3434,80 +3672,758 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="12" t="s">
-        <v>90</v>
+      <c r="A121" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C121" s="14">
+        <v>50</v>
+      </c>
       <c r="D121" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="12" t="s">
-        <v>92</v>
+      <c r="A122" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="14">
         <v>50</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E124" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="7">
+        <v>2</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="128" ht="18.75" spans="1:5">
+      <c r="A128" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="14">
+        <v>11</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="14">
+        <v>11</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="14">
+        <v>50</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" s="7">
+        <v>2</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" ht="18.75" spans="1:5">
+      <c r="A139" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="14">
+        <v>11</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="14">
+        <v>11</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="14">
+        <v>50</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="7">
+        <v>2</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" ht="18.75" spans="1:5">
+      <c r="A150" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="14">
+        <v>11</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="14">
+        <v>50</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C155" s="14">
+        <v>50</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="7">
+        <v>2</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" ht="18.75" spans="1:5">
+      <c r="A161" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="14">
+        <v>11</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="14">
+        <v>50</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" s="7">
+        <v>2</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" ht="18.75" spans="1:5">
+      <c r="A171" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="14">
+        <v>11</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="14">
+        <v>50</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="14">
+        <v>50</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="14">
+        <v>11</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" s="7">
+        <v>2</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A103:E103"/>
     <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A171:E171"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -250,6 +250,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Mobile no</t>
     </r>
     <r>
@@ -321,6 +328,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Modified Date</t>
     </r>
     <r>
@@ -530,6 +544,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Color id</t>
     </r>
     <r>
@@ -570,6 +591,66 @@
   </si>
   <si>
     <r>
+      <t>Size Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Key Relation With Size table</t>
+  </si>
+  <si>
+    <t>SKU ID*</t>
+  </si>
+  <si>
+    <t>Table :- Order</t>
+  </si>
+  <si>
+    <t>Product id</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With Product table</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation With User table</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Tax Amount</t>
+  </si>
+  <si>
+    <t>Delievery Status</t>
+  </si>
+  <si>
+    <t>delivered=4,out for delievery = 3,shipped=2,packed=1,ordered=0,</t>
+  </si>
+  <si>
+    <t>Modified Date</t>
+  </si>
+  <si>
+    <t>Date and time when Status has been modified.</t>
+  </si>
+  <si>
+    <t>Table :-  ContactUs</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -577,7 +658,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Size</t>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
     </r>
     <r>
       <rPr>
@@ -591,51 +695,6 @@
     </r>
   </si>
   <si>
-    <t>Foreign Key Relation With Size table</t>
-  </si>
-  <si>
-    <t>SKU ID*</t>
-  </si>
-  <si>
-    <t>Table :- Order</t>
-  </si>
-  <si>
-    <t>Product id</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation With Product table</t>
-  </si>
-  <si>
-    <t>Userid</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation With User table</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Tax Amount</t>
-  </si>
-  <si>
-    <t>Delievery Status</t>
-  </si>
-  <si>
-    <t>delivered=4,out for delievery = 3,shipped=2,packed=1,ordered=0,</t>
-  </si>
-  <si>
-    <t>Modified Date</t>
-  </si>
-  <si>
-    <t>Date and time when Status has been modified.</t>
-  </si>
-  <si>
-    <t>Table :-  ContactUs</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -644,7 +703,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ID</t>
+      <t>EmailID</t>
     </r>
     <r>
       <rPr>
@@ -660,10 +719,251 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subject</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Table :-  Shipping Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Street</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>City</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Key Relation with City table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>State</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Key Relation with State table</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Foreign Key Relation with Country table</t>
+  </si>
+  <si>
+    <t>Table :-  Billing Information</t>
+  </si>
+  <si>
+    <t>Table :- Country</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CountryName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Countrycode</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Table :- State</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Countryid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreignkey Relation With Country table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Name</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="Calibri"/>
@@ -674,6 +974,9 @@
     </r>
   </si>
   <si>
+    <t>Table :- City</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -682,13 +985,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EmailID</t>
+      <t>Stateid</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="5"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -697,6 +1000,12 @@
     </r>
   </si>
   <si>
+    <t>Foreignkey Relation With State table</t>
+  </si>
+  <si>
+    <t>Table :- Color</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -705,13 +1014,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Subject</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>ColorCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -720,6 +1028,15 @@
     </r>
   </si>
   <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>Table :- Size</t>
+  </si>
+  <si>
+    <t>Table :- Tax</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -728,281 +1045,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Comment</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Table :-  Shipping Information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UserId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Street</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>City</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Foreign Key Relation with City table</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>State</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Foreign Key Relation with State table</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Foreign Key Relation with Country table</t>
-  </si>
-  <si>
-    <t>Table :-  Billing Information</t>
-  </si>
-  <si>
-    <t>Table :- Country</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CountryName</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Countrycode</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Table :- State</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Countryid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Foreignkey Relation With Country table</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Table :- City</t>
-  </si>
-  <si>
-    <r>
-      <t>Stateid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Foreignkey Relation With State table</t>
-  </si>
-  <si>
-    <t>Table :- Color</t>
-  </si>
-  <si>
-    <r>
-      <t>ColorCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Varchar</t>
-  </si>
-  <si>
-    <t>Table :- Size</t>
-  </si>
-  <si>
-    <t>Table :- Tax</t>
-  </si>
-  <si>
-    <r>
       <t>Country Id</t>
     </r>
     <r>
@@ -1032,9 +1074,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1079,9 +1121,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,31 +1142,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,21 +1174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1170,6 +1189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1178,8 +1205,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,7 +1237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1201,21 +1245,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1286,31 +1328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,7 +1376,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,43 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,66 +1497,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,6 +1525,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1498,15 +1549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1518,39 +1560,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,6 +1581,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1580,12 +1598,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1603,130 +1645,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2097,8 +2139,8 @@
   <sheetPr/>
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -591,6 +591,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Size Id</t>
     </r>
     <r>
@@ -1074,9 +1081,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1122,6 +1129,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1129,24 +1143,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1174,6 +1181,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1189,27 +1212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,6 +1231,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1246,13 +1260,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,7 +1335,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,115 +1455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,13 +1479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,18 +1504,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,11 +1532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1549,6 +1562,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1560,21 +1582,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,15 +1634,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1648,131 +1655,131 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,6 +1823,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2139,8 +2149,8 @@
   <sheetPr/>
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2925,7 +2935,7 @@
       <c r="B59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="15">
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
